--- a/team_specific_times/Westcliff_B.xlsx
+++ b/team_specific_times/Westcliff_B.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="73">
   <si>
     <t>Transition</t>
   </si>
@@ -37,6 +37,9 @@
     <t>('Ai2', 'Ai0')</t>
   </si>
   <si>
+    <t>('Ai0', 'Br0')</t>
+  </si>
+  <si>
     <t>('Br0', 'Ar0')</t>
   </si>
   <si>
@@ -70,9 +73,6 @@
     <t>('Bi0', 'Br0')</t>
   </si>
   <si>
-    <t>('Br0', 'Bf2')</t>
-  </si>
-  <si>
     <t>('Bf2', 'Ai1')</t>
   </si>
   <si>
@@ -91,6 +91,12 @@
     <t>('Bf0', 'Bf1')</t>
   </si>
   <si>
+    <t>('Bf1', 'Ar0')</t>
+  </si>
+  <si>
+    <t>('Br0', 'Br0')</t>
+  </si>
+  <si>
     <t>('Ar0', 'Ai0')</t>
   </si>
   <si>
@@ -103,9 +109,6 @@
     <t>('Ar0', 'Bi3')</t>
   </si>
   <si>
-    <t>('Bi3', 'Ai2')</t>
-  </si>
-  <si>
     <t>('Bi2', 'Bf0')</t>
   </si>
   <si>
@@ -139,6 +142,9 @@
     <t>('Af0', 'Af1')</t>
   </si>
   <si>
+    <t>('Bi2', 'Br0')</t>
+  </si>
+  <si>
     <t>('Bi3', 'Bf3')</t>
   </si>
   <si>
@@ -148,15 +154,24 @@
     <t>('Af1', 'Br0')</t>
   </si>
   <si>
+    <t>('Ai1', 'Br0')</t>
+  </si>
+  <si>
     <t>('Ar0', 'Af2')</t>
   </si>
   <si>
     <t>('Af2', 'Bi1')</t>
   </si>
   <si>
+    <t>('Ai1', 'Af0')</t>
+  </si>
+  <si>
     <t>('Ar0', 'Ar0')</t>
   </si>
   <si>
+    <t>('Ai0', 'Bi2')</t>
+  </si>
+  <si>
     <t>('Bi1', 'Ar0')</t>
   </si>
   <si>
@@ -166,7 +181,7 @@
     <t>('Br0', 'Bi0')</t>
   </si>
   <si>
-    <t>('Bi0', 'Bf0')</t>
+    <t>('Bi2', 'Ai3')</t>
   </si>
   <si>
     <t>('Af1', 'Bi1')</t>
@@ -185,6 +200,39 @@
   </si>
   <si>
     <t>('Bi2', 'Bf2')</t>
+  </si>
+  <si>
+    <t>('Ai2', 'Bi3')</t>
+  </si>
+  <si>
+    <t>('Ai2', 'Ar0')</t>
+  </si>
+  <si>
+    <t>('Ai3', 'Ar0')</t>
+  </si>
+  <si>
+    <t>('Bi0', 'Ai3')</t>
+  </si>
+  <si>
+    <t>('Ai2', 'Af2')</t>
+  </si>
+  <si>
+    <t>('Af2', 'Br0')</t>
+  </si>
+  <si>
+    <t>('Ai1', 'Ai0')</t>
+  </si>
+  <si>
+    <t>('Bi1', 'Ai3')</t>
+  </si>
+  <si>
+    <t>('Ai3', 'Bi2')</t>
+  </si>
+  <si>
+    <t>('Bi1', 'Ai2')</t>
+  </si>
+  <si>
+    <t>('Ai2', 'Af0')</t>
   </si>
 </sst>
 </file>
@@ -542,7 +590,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D110"/>
+  <dimension ref="A1:D214"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -570,7 +618,7 @@
         <v>5</v>
       </c>
       <c r="D2">
-        <v>0.5</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -581,10 +629,10 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D3">
-        <v>0.5</v>
+        <v>0.1428571428571428</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -592,13 +640,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D4">
-        <v>0.2307692307692308</v>
+        <v>0.1428571428571428</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -606,13 +654,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D5">
-        <v>0.2307692307692308</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -620,13 +668,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D6">
-        <v>0.07692307692307693</v>
+        <v>0.1428571428571428</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -637,10 +685,10 @@
         <v>4</v>
       </c>
       <c r="C7">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>0.07692307692307693</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -651,10 +699,10 @@
         <v>4</v>
       </c>
       <c r="C8">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D8">
-        <v>0.1538461538461539</v>
+        <v>0.03703703703703703</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -665,10 +713,10 @@
         <v>4</v>
       </c>
       <c r="C9">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D9">
-        <v>0.1538461538461539</v>
+        <v>0.1481481481481481</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -679,10 +727,10 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D10">
-        <v>0.07692307692307693</v>
+        <v>0.07407407407407407</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -690,13 +738,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11">
         <v>5</v>
       </c>
-      <c r="C11">
-        <v>13</v>
-      </c>
       <c r="D11">
-        <v>0.5</v>
+        <v>0.1481481481481481</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -704,13 +752,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C12">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D12">
-        <v>0.25</v>
+        <v>0.07407407407407407</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -718,13 +766,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C13">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D13">
-        <v>0.25</v>
+        <v>0.03703703703703703</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -732,13 +780,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C14">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>0.03703703703703703</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -746,13 +794,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C15">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D15">
-        <v>0.2222222222222222</v>
+        <v>0.07407407407407407</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -760,13 +808,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C16">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D16">
-        <v>0.1111111111111111</v>
+        <v>0.07407407407407407</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -774,13 +822,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C17">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D17">
-        <v>0.1111111111111111</v>
+        <v>0.03703703703703703</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -788,13 +836,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C18">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D18">
-        <v>0.2222222222222222</v>
+        <v>0.03703703703703703</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -802,13 +850,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C19">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D19">
-        <v>0.1111111111111111</v>
+        <v>0.03703703703703703</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -816,13 +864,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C20">
         <v>16</v>
       </c>
       <c r="D20">
-        <v>0.1111111111111111</v>
+        <v>0.03703703703703703</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -830,13 +878,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C21">
         <v>20</v>
       </c>
       <c r="D21">
-        <v>0.1111111111111111</v>
+        <v>0.03703703703703703</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -844,13 +892,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C22">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D22">
-        <v>0.09090909090909091</v>
+        <v>0.2222222222222222</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -858,13 +906,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C23">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D23">
-        <v>0.09090909090909091</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -872,13 +920,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C24">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D24">
-        <v>0.09090909090909091</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -886,13 +934,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C25">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D25">
-        <v>0.09090909090909091</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -900,13 +948,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C26">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D26">
-        <v>0.09090909090909091</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -914,13 +962,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C27">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D27">
-        <v>0.1818181818181818</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -928,13 +976,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C28">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D28">
-        <v>0.09090909090909091</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -942,13 +990,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C29">
         <v>24</v>
       </c>
       <c r="D29">
-        <v>0.1818181818181818</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -956,13 +1004,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C30">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D30">
-        <v>0.09090909090909091</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -970,13 +1018,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C31">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D31">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -984,13 +1032,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C32">
         <v>7</v>
       </c>
       <c r="D32">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -998,13 +1046,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C33">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D33">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1012,13 +1060,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C34">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D34">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1026,13 +1074,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C35">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D35">
-        <v>0.2</v>
+        <v>0.0625</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1040,13 +1088,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D36">
-        <v>0.1428571428571428</v>
+        <v>0.1875</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1054,13 +1102,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C37">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D37">
-        <v>0.1428571428571428</v>
+        <v>0.03125</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1068,13 +1116,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C38">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D38">
-        <v>0.2857142857142857</v>
+        <v>0.03125</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1082,13 +1130,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C39">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D39">
-        <v>0.1428571428571428</v>
+        <v>0.09375</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1096,13 +1144,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C40">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D40">
-        <v>0.1428571428571428</v>
+        <v>0.03125</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1110,13 +1158,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C41">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D41">
-        <v>0.1428571428571428</v>
+        <v>0.03125</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1124,13 +1172,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D42">
-        <v>1</v>
+        <v>0.03125</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1138,13 +1186,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>0.03125</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1152,13 +1200,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C44">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>0.0625</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1166,13 +1214,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C45">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D45">
-        <v>0.4</v>
+        <v>0.09375</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1180,13 +1228,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46">
         <v>14</v>
       </c>
-      <c r="C46">
-        <v>11</v>
-      </c>
       <c r="D46">
-        <v>0.2</v>
+        <v>0.0625</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1194,13 +1242,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C47">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D47">
-        <v>0.4</v>
+        <v>0.03125</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1208,13 +1256,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D48">
-        <v>1</v>
+        <v>0.0625</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1222,13 +1270,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C49">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D49">
-        <v>1</v>
+        <v>0.0625</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1236,13 +1284,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C50">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="D50">
-        <v>1</v>
+        <v>0.03125</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1250,13 +1298,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C51">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D51">
-        <v>1</v>
+        <v>0.03125</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1264,13 +1312,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="D52">
-        <v>1</v>
+        <v>0.03125</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1278,13 +1326,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C53">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D53">
-        <v>0.5</v>
+        <v>0.09523809523809523</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1292,13 +1340,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C54">
         <v>12</v>
       </c>
       <c r="D54">
-        <v>0.5</v>
+        <v>0.09523809523809523</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1306,13 +1354,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C55">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D55">
-        <v>0.25</v>
+        <v>0.04761904761904762</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1320,13 +1368,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C56">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D56">
-        <v>0.25</v>
+        <v>0.04761904761904762</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1334,13 +1382,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C57">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D57">
-        <v>0.25</v>
+        <v>0.04761904761904762</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1348,13 +1396,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C58">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D58">
-        <v>0.25</v>
+        <v>0.04761904761904762</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1362,13 +1410,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C59">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D59">
-        <v>0.25</v>
+        <v>0.09523809523809523</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1376,13 +1424,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C60">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D60">
-        <v>0.5</v>
+        <v>0.09523809523809523</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1390,13 +1438,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
+        <v>9</v>
+      </c>
+      <c r="C61">
         <v>22</v>
       </c>
-      <c r="C61">
-        <v>20</v>
-      </c>
       <c r="D61">
-        <v>0.25</v>
+        <v>0.1428571428571428</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1404,13 +1452,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
+        <v>9</v>
+      </c>
+      <c r="C62">
         <v>23</v>
       </c>
-      <c r="C62">
-        <v>1</v>
-      </c>
       <c r="D62">
-        <v>0.2</v>
+        <v>0.04761904761904762</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1418,13 +1466,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C63">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D63">
-        <v>0.2</v>
+        <v>0.09523809523809523</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1432,13 +1480,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C64">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D64">
-        <v>0.2</v>
+        <v>0.04761904761904762</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1446,13 +1494,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C65">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D65">
-        <v>0.4</v>
+        <v>0.09523809523809523</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1460,13 +1508,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C66">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D66">
-        <v>1</v>
+        <v>0.0625</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1474,13 +1522,13 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="C67">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D67">
-        <v>0.5</v>
+        <v>0.15625</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1488,13 +1536,13 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="C68">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D68">
-        <v>0.5</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1502,13 +1550,13 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="C69">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D69">
-        <v>1</v>
+        <v>0.03125</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1516,13 +1564,13 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="C70">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D70">
-        <v>1</v>
+        <v>0.0625</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1530,13 +1578,13 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="C71">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D71">
-        <v>0.4</v>
+        <v>0.09375</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1544,13 +1592,13 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="C72">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D72">
-        <v>0.2</v>
+        <v>0.09375</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1558,13 +1606,13 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="C73">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D73">
-        <v>0.2</v>
+        <v>0.09375</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1572,13 +1620,13 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="C74">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D74">
-        <v>0.2</v>
+        <v>0.09375</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1586,13 +1634,13 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="C75">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D75">
-        <v>1</v>
+        <v>0.03125</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1600,13 +1648,13 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C76">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D76">
-        <v>1</v>
+        <v>0.0625</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1614,13 +1662,13 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="C77">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D77">
-        <v>1</v>
+        <v>0.03125</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1628,13 +1676,13 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="C78">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D78">
-        <v>0.5</v>
+        <v>0.0625</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1642,13 +1690,13 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="C79">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D79">
-        <v>0.5</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1656,13 +1704,13 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="C80">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D80">
-        <v>1</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1670,13 +1718,13 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="C81">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D81">
-        <v>1</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1684,13 +1732,13 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="C82">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D82">
-        <v>1</v>
+        <v>0.2222222222222222</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1698,13 +1746,13 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="C83">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D83">
-        <v>1</v>
+        <v>0.2222222222222222</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1712,13 +1760,13 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="C84">
         <v>11</v>
       </c>
       <c r="D84">
-        <v>1</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1726,13 +1774,13 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="C85">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D85">
-        <v>1</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1740,10 +1788,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="C86">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D86">
         <v>1</v>
@@ -1754,7 +1802,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="C87">
         <v>0</v>
@@ -1768,10 +1816,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="C88">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D88">
         <v>1</v>
@@ -1782,13 +1830,13 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C89">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D89">
-        <v>1</v>
+        <v>0.1818181818181818</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1796,13 +1844,13 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="C90">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D90">
-        <v>1</v>
+        <v>0.09090909090909091</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -1810,13 +1858,13 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="C91">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D91">
-        <v>0.5</v>
+        <v>0.1818181818181818</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -1824,13 +1872,13 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="C92">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D92">
-        <v>0.5</v>
+        <v>0.09090909090909091</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -1838,13 +1886,13 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="C93">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D93">
-        <v>1</v>
+        <v>0.09090909090909091</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -1852,13 +1900,13 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="C94">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D94">
-        <v>0.25</v>
+        <v>0.2727272727272727</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -1866,13 +1914,13 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="C95">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D95">
-        <v>0.25</v>
+        <v>0.09090909090909091</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -1880,13 +1928,13 @@
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="C96">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D96">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -1894,13 +1942,13 @@
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="C97">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D97">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -1908,13 +1956,13 @@
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="C98">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D98">
-        <v>0.1666666666666667</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -1922,13 +1970,13 @@
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="C99">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D99">
-        <v>0.1666666666666667</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -1936,13 +1984,13 @@
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="C100">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="D100">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -1950,13 +1998,13 @@
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="C101">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D101">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -1964,13 +2012,13 @@
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="C102">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D102">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -1978,13 +2026,13 @@
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="C103">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D103">
-        <v>1</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -1992,13 +2040,13 @@
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="C104">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D104">
-        <v>1</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -2006,13 +2054,13 @@
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="C105">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D105">
-        <v>1</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -2020,13 +2068,13 @@
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="C106">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D106">
-        <v>1</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -2034,13 +2082,13 @@
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="C107">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="D107">
-        <v>1</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -2048,13 +2096,13 @@
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="C108">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="D108">
-        <v>1</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -2062,13 +2110,13 @@
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="C109">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D109">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -2076,12 +2124,1468 @@
         <v>108</v>
       </c>
       <c r="B110" t="s">
+        <v>22</v>
+      </c>
+      <c r="C110">
+        <v>18</v>
+      </c>
+      <c r="D110">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" s="1">
+        <v>109</v>
+      </c>
+      <c r="B111" t="s">
+        <v>22</v>
+      </c>
+      <c r="C111">
+        <v>20</v>
+      </c>
+      <c r="D111">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" s="1">
+        <v>110</v>
+      </c>
+      <c r="B112" t="s">
+        <v>22</v>
+      </c>
+      <c r="C112">
+        <v>21</v>
+      </c>
+      <c r="D112">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="1">
+        <v>111</v>
+      </c>
+      <c r="B113" t="s">
+        <v>22</v>
+      </c>
+      <c r="C113">
+        <v>26</v>
+      </c>
+      <c r="D113">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="1">
+        <v>112</v>
+      </c>
+      <c r="B114" t="s">
+        <v>23</v>
+      </c>
+      <c r="C114">
+        <v>0</v>
+      </c>
+      <c r="D114">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="1">
+        <v>113</v>
+      </c>
+      <c r="B115" t="s">
+        <v>23</v>
+      </c>
+      <c r="C115">
+        <v>1</v>
+      </c>
+      <c r="D115">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="1">
+        <v>114</v>
+      </c>
+      <c r="B116" t="s">
+        <v>23</v>
+      </c>
+      <c r="C116">
+        <v>9</v>
+      </c>
+      <c r="D116">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="1">
+        <v>115</v>
+      </c>
+      <c r="B117" t="s">
+        <v>23</v>
+      </c>
+      <c r="C117">
+        <v>11</v>
+      </c>
+      <c r="D117">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="1">
+        <v>116</v>
+      </c>
+      <c r="B118" t="s">
+        <v>23</v>
+      </c>
+      <c r="C118">
+        <v>12</v>
+      </c>
+      <c r="D118">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="1">
+        <v>117</v>
+      </c>
+      <c r="B119" t="s">
+        <v>24</v>
+      </c>
+      <c r="C119">
+        <v>0</v>
+      </c>
+      <c r="D119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="1">
+        <v>118</v>
+      </c>
+      <c r="B120" t="s">
+        <v>25</v>
+      </c>
+      <c r="C120">
+        <v>1</v>
+      </c>
+      <c r="D120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="1">
+        <v>119</v>
+      </c>
+      <c r="B121" t="s">
+        <v>26</v>
+      </c>
+      <c r="C121">
+        <v>8</v>
+      </c>
+      <c r="D121">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="1">
+        <v>120</v>
+      </c>
+      <c r="B122" t="s">
+        <v>26</v>
+      </c>
+      <c r="C122">
+        <v>11</v>
+      </c>
+      <c r="D122">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="1">
+        <v>121</v>
+      </c>
+      <c r="B123" t="s">
+        <v>26</v>
+      </c>
+      <c r="C123">
+        <v>14</v>
+      </c>
+      <c r="D123">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="1">
+        <v>122</v>
+      </c>
+      <c r="B124" t="s">
+        <v>26</v>
+      </c>
+      <c r="C124">
+        <v>18</v>
+      </c>
+      <c r="D124">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="1">
+        <v>123</v>
+      </c>
+      <c r="B125" t="s">
+        <v>27</v>
+      </c>
+      <c r="C125">
+        <v>0</v>
+      </c>
+      <c r="D125">
+        <v>0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" s="1">
+        <v>124</v>
+      </c>
+      <c r="B126" t="s">
+        <v>27</v>
+      </c>
+      <c r="C126">
+        <v>2</v>
+      </c>
+      <c r="D126">
+        <v>0.1428571428571428</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="1">
+        <v>125</v>
+      </c>
+      <c r="B127" t="s">
+        <v>27</v>
+      </c>
+      <c r="C127">
+        <v>6</v>
+      </c>
+      <c r="D127">
+        <v>0.1428571428571428</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="1">
+        <v>126</v>
+      </c>
+      <c r="B128" t="s">
+        <v>27</v>
+      </c>
+      <c r="C128">
+        <v>7</v>
+      </c>
+      <c r="D128">
+        <v>0.1428571428571428</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="1">
+        <v>127</v>
+      </c>
+      <c r="B129" t="s">
+        <v>27</v>
+      </c>
+      <c r="C129">
+        <v>9</v>
+      </c>
+      <c r="D129">
+        <v>0.1428571428571428</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" s="1">
+        <v>128</v>
+      </c>
+      <c r="B130" t="s">
+        <v>27</v>
+      </c>
+      <c r="C130">
+        <v>10</v>
+      </c>
+      <c r="D130">
+        <v>0.1428571428571428</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" s="1">
+        <v>129</v>
+      </c>
+      <c r="B131" t="s">
+        <v>28</v>
+      </c>
+      <c r="C131">
+        <v>0</v>
+      </c>
+      <c r="D131">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" s="1">
+        <v>130</v>
+      </c>
+      <c r="B132" t="s">
+        <v>28</v>
+      </c>
+      <c r="C132">
+        <v>14</v>
+      </c>
+      <c r="D132">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" s="1">
+        <v>131</v>
+      </c>
+      <c r="B133" t="s">
+        <v>29</v>
+      </c>
+      <c r="C133">
+        <v>0</v>
+      </c>
+      <c r="D133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="1">
+        <v>132</v>
+      </c>
+      <c r="B134" t="s">
+        <v>30</v>
+      </c>
+      <c r="C134">
+        <v>4</v>
+      </c>
+      <c r="D134">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" s="1">
+        <v>133</v>
+      </c>
+      <c r="B135" t="s">
+        <v>30</v>
+      </c>
+      <c r="C135">
+        <v>5</v>
+      </c>
+      <c r="D135">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" s="1">
+        <v>134</v>
+      </c>
+      <c r="B136" t="s">
+        <v>30</v>
+      </c>
+      <c r="C136">
+        <v>6</v>
+      </c>
+      <c r="D136">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" s="1">
+        <v>135</v>
+      </c>
+      <c r="B137" t="s">
+        <v>30</v>
+      </c>
+      <c r="C137">
+        <v>7</v>
+      </c>
+      <c r="D137">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" s="1">
+        <v>136</v>
+      </c>
+      <c r="B138" t="s">
+        <v>30</v>
+      </c>
+      <c r="C138">
+        <v>8</v>
+      </c>
+      <c r="D138">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" s="1">
+        <v>137</v>
+      </c>
+      <c r="B139" t="s">
+        <v>30</v>
+      </c>
+      <c r="C139">
+        <v>9</v>
+      </c>
+      <c r="D139">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" s="1">
+        <v>138</v>
+      </c>
+      <c r="B140" t="s">
+        <v>30</v>
+      </c>
+      <c r="C140">
+        <v>12</v>
+      </c>
+      <c r="D140">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" s="1">
+        <v>139</v>
+      </c>
+      <c r="B141" t="s">
+        <v>31</v>
+      </c>
+      <c r="C141">
+        <v>16</v>
+      </c>
+      <c r="D141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" s="1">
+        <v>140</v>
+      </c>
+      <c r="B142" t="s">
+        <v>32</v>
+      </c>
+      <c r="C142">
+        <v>0</v>
+      </c>
+      <c r="D142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" s="1">
+        <v>141</v>
+      </c>
+      <c r="B143" t="s">
+        <v>33</v>
+      </c>
+      <c r="C143">
+        <v>12</v>
+      </c>
+      <c r="D143">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" s="1">
+        <v>142</v>
+      </c>
+      <c r="B144" t="s">
+        <v>33</v>
+      </c>
+      <c r="C144">
+        <v>15</v>
+      </c>
+      <c r="D144">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" s="1">
+        <v>143</v>
+      </c>
+      <c r="B145" t="s">
+        <v>34</v>
+      </c>
+      <c r="C145">
+        <v>4</v>
+      </c>
+      <c r="D145">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" s="1">
+        <v>144</v>
+      </c>
+      <c r="B146" t="s">
+        <v>34</v>
+      </c>
+      <c r="C146">
+        <v>16</v>
+      </c>
+      <c r="D146">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" s="1">
+        <v>145</v>
+      </c>
+      <c r="B147" t="s">
+        <v>35</v>
+      </c>
+      <c r="C147">
+        <v>12</v>
+      </c>
+      <c r="D147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" s="1">
+        <v>146</v>
+      </c>
+      <c r="B148" t="s">
+        <v>36</v>
+      </c>
+      <c r="C148">
+        <v>19</v>
+      </c>
+      <c r="D148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" s="1">
+        <v>147</v>
+      </c>
+      <c r="B149" t="s">
+        <v>37</v>
+      </c>
+      <c r="C149">
+        <v>15</v>
+      </c>
+      <c r="D149">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" s="1">
+        <v>148</v>
+      </c>
+      <c r="B150" t="s">
+        <v>37</v>
+      </c>
+      <c r="C150">
+        <v>21</v>
+      </c>
+      <c r="D150">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" s="1">
+        <v>149</v>
+      </c>
+      <c r="B151" t="s">
+        <v>37</v>
+      </c>
+      <c r="C151">
+        <v>24</v>
+      </c>
+      <c r="D151">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" s="1">
+        <v>150</v>
+      </c>
+      <c r="B152" t="s">
+        <v>37</v>
+      </c>
+      <c r="C152">
+        <v>25</v>
+      </c>
+      <c r="D152">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" s="1">
+        <v>151</v>
+      </c>
+      <c r="B153" t="s">
+        <v>38</v>
+      </c>
+      <c r="C153">
+        <v>11</v>
+      </c>
+      <c r="D153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" s="1">
+        <v>152</v>
+      </c>
+      <c r="B154" t="s">
+        <v>39</v>
+      </c>
+      <c r="C154">
+        <v>0</v>
+      </c>
+      <c r="D154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" s="1">
+        <v>153</v>
+      </c>
+      <c r="B155" t="s">
+        <v>40</v>
+      </c>
+      <c r="C155">
+        <v>15</v>
+      </c>
+      <c r="D155">
+        <v>0.1666666666666667</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" s="1">
+        <v>154</v>
+      </c>
+      <c r="B156" t="s">
+        <v>40</v>
+      </c>
+      <c r="C156">
+        <v>17</v>
+      </c>
+      <c r="D156">
+        <v>0.1666666666666667</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" s="1">
+        <v>155</v>
+      </c>
+      <c r="B157" t="s">
+        <v>40</v>
+      </c>
+      <c r="C157">
+        <v>20</v>
+      </c>
+      <c r="D157">
+        <v>0.1666666666666667</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" s="1">
+        <v>156</v>
+      </c>
+      <c r="B158" t="s">
+        <v>40</v>
+      </c>
+      <c r="C158">
+        <v>21</v>
+      </c>
+      <c r="D158">
+        <v>0.1666666666666667</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" s="1">
+        <v>157</v>
+      </c>
+      <c r="B159" t="s">
+        <v>40</v>
+      </c>
+      <c r="C159">
+        <v>31</v>
+      </c>
+      <c r="D159">
+        <v>0.1666666666666667</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" s="1">
+        <v>158</v>
+      </c>
+      <c r="B160" t="s">
+        <v>40</v>
+      </c>
+      <c r="C160">
+        <v>35</v>
+      </c>
+      <c r="D160">
+        <v>0.1666666666666667</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" s="1">
+        <v>159</v>
+      </c>
+      <c r="B161" t="s">
+        <v>41</v>
+      </c>
+      <c r="C161">
+        <v>0</v>
+      </c>
+      <c r="D161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" s="1">
+        <v>160</v>
+      </c>
+      <c r="B162" t="s">
+        <v>42</v>
+      </c>
+      <c r="C162">
+        <v>13</v>
+      </c>
+      <c r="D162">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" s="1">
+        <v>161</v>
+      </c>
+      <c r="B163" t="s">
+        <v>42</v>
+      </c>
+      <c r="C163">
+        <v>17</v>
+      </c>
+      <c r="D163">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" s="1">
+        <v>162</v>
+      </c>
+      <c r="B164" t="s">
+        <v>43</v>
+      </c>
+      <c r="C164">
+        <v>17</v>
+      </c>
+      <c r="D164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" s="1">
+        <v>163</v>
+      </c>
+      <c r="B165" t="s">
+        <v>44</v>
+      </c>
+      <c r="C165">
+        <v>1</v>
+      </c>
+      <c r="D165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" s="1">
+        <v>164</v>
+      </c>
+      <c r="B166" t="s">
+        <v>45</v>
+      </c>
+      <c r="C166">
+        <v>0</v>
+      </c>
+      <c r="D166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" s="1">
+        <v>165</v>
+      </c>
+      <c r="B167" t="s">
+        <v>46</v>
+      </c>
+      <c r="C167">
+        <v>19</v>
+      </c>
+      <c r="D167">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" s="1">
+        <v>166</v>
+      </c>
+      <c r="B168" t="s">
+        <v>46</v>
+      </c>
+      <c r="C168">
+        <v>22</v>
+      </c>
+      <c r="D168">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" s="1">
+        <v>167</v>
+      </c>
+      <c r="B169" t="s">
+        <v>47</v>
+      </c>
+      <c r="C169">
+        <v>6</v>
+      </c>
+      <c r="D169">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" s="1">
+        <v>168</v>
+      </c>
+      <c r="B170" t="s">
+        <v>47</v>
+      </c>
+      <c r="C170">
+        <v>10</v>
+      </c>
+      <c r="D170">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" s="1">
+        <v>169</v>
+      </c>
+      <c r="B171" t="s">
+        <v>48</v>
+      </c>
+      <c r="C171">
+        <v>0</v>
+      </c>
+      <c r="D171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" s="1">
+        <v>170</v>
+      </c>
+      <c r="B172" t="s">
+        <v>49</v>
+      </c>
+      <c r="C172">
+        <v>13</v>
+      </c>
+      <c r="D172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" s="1">
+        <v>171</v>
+      </c>
+      <c r="B173" t="s">
+        <v>50</v>
+      </c>
+      <c r="C173">
+        <v>4</v>
+      </c>
+      <c r="D173">
+        <v>0.07692307692307693</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" s="1">
+        <v>172</v>
+      </c>
+      <c r="B174" t="s">
+        <v>50</v>
+      </c>
+      <c r="C174">
+        <v>5</v>
+      </c>
+      <c r="D174">
+        <v>0.07692307692307693</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" s="1">
+        <v>173</v>
+      </c>
+      <c r="B175" t="s">
+        <v>50</v>
+      </c>
+      <c r="C175">
+        <v>6</v>
+      </c>
+      <c r="D175">
+        <v>0.07692307692307693</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" s="1">
+        <v>174</v>
+      </c>
+      <c r="B176" t="s">
+        <v>50</v>
+      </c>
+      <c r="C176">
+        <v>8</v>
+      </c>
+      <c r="D176">
+        <v>0.07692307692307693</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" s="1">
+        <v>175</v>
+      </c>
+      <c r="B177" t="s">
+        <v>50</v>
+      </c>
+      <c r="C177">
+        <v>10</v>
+      </c>
+      <c r="D177">
+        <v>0.07692307692307693</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" s="1">
+        <v>176</v>
+      </c>
+      <c r="B178" t="s">
+        <v>50</v>
+      </c>
+      <c r="C178">
+        <v>11</v>
+      </c>
+      <c r="D178">
+        <v>0.3076923076923077</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" s="1">
+        <v>177</v>
+      </c>
+      <c r="B179" t="s">
+        <v>50</v>
+      </c>
+      <c r="C179">
+        <v>16</v>
+      </c>
+      <c r="D179">
+        <v>0.07692307692307693</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" s="1">
+        <v>178</v>
+      </c>
+      <c r="B180" t="s">
+        <v>50</v>
+      </c>
+      <c r="C180">
+        <v>18</v>
+      </c>
+      <c r="D180">
+        <v>0.07692307692307693</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" s="1">
+        <v>179</v>
+      </c>
+      <c r="B181" t="s">
+        <v>50</v>
+      </c>
+      <c r="C181">
+        <v>19</v>
+      </c>
+      <c r="D181">
+        <v>0.07692307692307693</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" s="1">
+        <v>180</v>
+      </c>
+      <c r="B182" t="s">
+        <v>50</v>
+      </c>
+      <c r="C182">
+        <v>22</v>
+      </c>
+      <c r="D182">
+        <v>0.07692307692307693</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" s="1">
+        <v>181</v>
+      </c>
+      <c r="B183" t="s">
+        <v>51</v>
+      </c>
+      <c r="C183">
+        <v>5</v>
+      </c>
+      <c r="D183">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" s="1">
+        <v>182</v>
+      </c>
+      <c r="B184" t="s">
+        <v>51</v>
+      </c>
+      <c r="C184">
+        <v>10</v>
+      </c>
+      <c r="D184">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" s="1">
+        <v>183</v>
+      </c>
+      <c r="B185" t="s">
+        <v>51</v>
+      </c>
+      <c r="C185">
+        <v>14</v>
+      </c>
+      <c r="D185">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" s="1">
+        <v>184</v>
+      </c>
+      <c r="B186" t="s">
+        <v>52</v>
+      </c>
+      <c r="C186">
+        <v>2</v>
+      </c>
+      <c r="D186">
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" s="1">
+        <v>185</v>
+      </c>
+      <c r="B187" t="s">
+        <v>52</v>
+      </c>
+      <c r="C187">
+        <v>5</v>
+      </c>
+      <c r="D187">
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" s="1">
+        <v>186</v>
+      </c>
+      <c r="B188" t="s">
+        <v>52</v>
+      </c>
+      <c r="C188">
+        <v>10</v>
+      </c>
+      <c r="D188">
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" s="1">
+        <v>187</v>
+      </c>
+      <c r="B189" t="s">
+        <v>52</v>
+      </c>
+      <c r="C189">
+        <v>12</v>
+      </c>
+      <c r="D189">
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" s="1">
+        <v>188</v>
+      </c>
+      <c r="B190" t="s">
+        <v>52</v>
+      </c>
+      <c r="C190">
+        <v>14</v>
+      </c>
+      <c r="D190">
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" s="1">
+        <v>189</v>
+      </c>
+      <c r="B191" t="s">
+        <v>52</v>
+      </c>
+      <c r="C191">
+        <v>16</v>
+      </c>
+      <c r="D191">
+        <v>0.2222222222222222</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192" s="1">
+        <v>190</v>
+      </c>
+      <c r="B192" t="s">
+        <v>52</v>
+      </c>
+      <c r="C192">
+        <v>17</v>
+      </c>
+      <c r="D192">
+        <v>0.2222222222222222</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193" s="1">
+        <v>191</v>
+      </c>
+      <c r="B193" t="s">
+        <v>53</v>
+      </c>
+      <c r="C193">
+        <v>22</v>
+      </c>
+      <c r="D193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" s="1">
+        <v>192</v>
+      </c>
+      <c r="B194" t="s">
+        <v>54</v>
+      </c>
+      <c r="C194">
+        <v>3</v>
+      </c>
+      <c r="D194">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" s="1">
+        <v>193</v>
+      </c>
+      <c r="B195" t="s">
+        <v>54</v>
+      </c>
+      <c r="C195">
+        <v>5</v>
+      </c>
+      <c r="D195">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" s="1">
+        <v>194</v>
+      </c>
+      <c r="B196" t="s">
+        <v>54</v>
+      </c>
+      <c r="C196">
+        <v>6</v>
+      </c>
+      <c r="D196">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" s="1">
+        <v>195</v>
+      </c>
+      <c r="B197" t="s">
+        <v>55</v>
+      </c>
+      <c r="C197">
+        <v>10</v>
+      </c>
+      <c r="D197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" s="1">
+        <v>196</v>
+      </c>
+      <c r="B198" t="s">
         <v>56</v>
       </c>
-      <c r="C110">
+      <c r="C198">
+        <v>0</v>
+      </c>
+      <c r="D198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" s="1">
+        <v>197</v>
+      </c>
+      <c r="B199" t="s">
+        <v>57</v>
+      </c>
+      <c r="C199">
+        <v>17</v>
+      </c>
+      <c r="D199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" s="1">
+        <v>198</v>
+      </c>
+      <c r="B200" t="s">
+        <v>58</v>
+      </c>
+      <c r="C200">
+        <v>2</v>
+      </c>
+      <c r="D200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201" s="1">
+        <v>199</v>
+      </c>
+      <c r="B201" t="s">
+        <v>59</v>
+      </c>
+      <c r="C201">
+        <v>0</v>
+      </c>
+      <c r="D201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" s="1">
+        <v>200</v>
+      </c>
+      <c r="B202" t="s">
+        <v>60</v>
+      </c>
+      <c r="C202">
+        <v>4</v>
+      </c>
+      <c r="D202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203" s="1">
+        <v>201</v>
+      </c>
+      <c r="B203" t="s">
+        <v>61</v>
+      </c>
+      <c r="C203">
         <v>15</v>
       </c>
-      <c r="D110">
+      <c r="D203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204" s="1">
+        <v>202</v>
+      </c>
+      <c r="B204" t="s">
+        <v>62</v>
+      </c>
+      <c r="C204">
+        <v>7</v>
+      </c>
+      <c r="D204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205" s="1">
+        <v>203</v>
+      </c>
+      <c r="B205" t="s">
+        <v>63</v>
+      </c>
+      <c r="C205">
+        <v>16</v>
+      </c>
+      <c r="D205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206" s="1">
+        <v>204</v>
+      </c>
+      <c r="B206" t="s">
+        <v>64</v>
+      </c>
+      <c r="C206">
+        <v>19</v>
+      </c>
+      <c r="D206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207" s="1">
+        <v>205</v>
+      </c>
+      <c r="B207" t="s">
+        <v>65</v>
+      </c>
+      <c r="C207">
+        <v>18</v>
+      </c>
+      <c r="D207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208" s="1">
+        <v>206</v>
+      </c>
+      <c r="B208" t="s">
+        <v>66</v>
+      </c>
+      <c r="C208">
+        <v>21</v>
+      </c>
+      <c r="D208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209" s="1">
+        <v>207</v>
+      </c>
+      <c r="B209" t="s">
+        <v>67</v>
+      </c>
+      <c r="C209">
+        <v>0</v>
+      </c>
+      <c r="D209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210" s="1">
+        <v>208</v>
+      </c>
+      <c r="B210" t="s">
+        <v>68</v>
+      </c>
+      <c r="C210">
+        <v>12</v>
+      </c>
+      <c r="D210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211" s="1">
+        <v>209</v>
+      </c>
+      <c r="B211" t="s">
+        <v>69</v>
+      </c>
+      <c r="C211">
+        <v>14</v>
+      </c>
+      <c r="D211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212" s="1">
+        <v>210</v>
+      </c>
+      <c r="B212" t="s">
+        <v>70</v>
+      </c>
+      <c r="C212">
+        <v>10</v>
+      </c>
+      <c r="D212">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213" s="1">
+        <v>211</v>
+      </c>
+      <c r="B213" t="s">
+        <v>71</v>
+      </c>
+      <c r="C213">
+        <v>10</v>
+      </c>
+      <c r="D213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214" s="1">
+        <v>212</v>
+      </c>
+      <c r="B214" t="s">
+        <v>72</v>
+      </c>
+      <c r="C214">
+        <v>5</v>
+      </c>
+      <c r="D214">
         <v>1</v>
       </c>
     </row>
